--- a/portfolio_scenarios.xlsx
+++ b/portfolio_scenarios.xlsx
@@ -404,442 +404,442 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45812</v>
+        <v>45814</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.0315942877839222</v>
+        <v>-0.0159176274189066</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.00769476436800401</v>
+        <v>0.0401021338143846</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.00826297622052372</v>
+        <v>0.00286674642384736</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.0166444076903847</v>
+        <v>-0.000268533961261067</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>-0.00357578324359335</v>
+        <v>-0.00649507159454172</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45813</v>
+        <v>45815</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0.0349431005632565</v>
+        <v>-0.00134964918385065</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.0113321385633706</v>
+        <v>0.00520749384040228</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.0108768484800759</v>
+        <v>-0.00591528234688075</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.00659773529721661</v>
+        <v>-0.0231761410368445</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.015026051078495</v>
+        <v>0.000747716895161697</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45814</v>
+        <v>45816</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.0306336444869903</v>
+        <v>0.0353888631226597</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.0179571783310693</v>
+        <v>-0.0422163934028078</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.00780295922331215</v>
+        <v>-0.000965627269882336</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>-0.0120739122391146</v>
+        <v>0.00759852439194361</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>-0.0386748888493432</v>
+        <v>0.0109782766255906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45815</v>
+        <v>45817</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.0110950205123065</v>
+        <v>-0.0179190591779992</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.0451457143502287</v>
+        <v>0.00450456849939049</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.0014924279905073</v>
+        <v>0.00615929598023879</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>-0.0221542717204996</v>
+        <v>-0.0167729246062544</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>-0.00728780508574357</v>
+        <v>-0.00404020856378203</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45816</v>
+        <v>45818</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-0.00130449103795791</v>
+        <v>-0.00341984466591286</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>-0.0219569872752434</v>
+        <v>-0.00412973538452147</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>-0.015115726719155</v>
+        <v>-0.00425219934943878</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>-0.0108637075913128</v>
+        <v>0.0182615830572512</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>-0.00352023155522252</v>
+        <v>-0.0134713124535697</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0.0105244333058127</v>
+        <v>-0.0139165662554716</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.0472179925234612</v>
+        <v>-0.00721169109649171</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>-0.0119342565529405</v>
+        <v>-0.0311629412041027</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.00820941183259905</v>
+        <v>-0.000678795285227273</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>-0.00793626797098661</v>
+        <v>0.0307085390592831</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-0.0772873208495006</v>
+        <v>-0.018826177969438</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>-0.150075774149128</v>
+        <v>-0.00680363632015526</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.00582030387475444</v>
+        <v>0.0178947739232774</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0210075890175238</v>
+        <v>-0.0412252475978512</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>-0.00500752336637815</v>
+        <v>0.0396461295979496</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-0.0055053086560621</v>
+        <v>-0.0146353791145868</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>-0.0269437123523825</v>
+        <v>-0.00571897009539268</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>-0.0025755386989785</v>
+        <v>0.0130488352087511</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0225188009896401</v>
+        <v>-0.0108907911373033</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>-0.00142270855783767</v>
+        <v>-0.00468699010063058</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45820</v>
+        <v>45822</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-0.0223779358525484</v>
+        <v>-0.00221212246070971</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>0.0120998378265474</v>
+        <v>-0.00406363411571713</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>-0.00669526302970745</v>
+        <v>0.000273906945341256</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.0104785529229038</v>
+        <v>0.0174692930072909</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>-0.028352145832544</v>
+        <v>-0.0000445594567574355</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45821</v>
+        <v>45823</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-0.0283352706289005</v>
+        <v>-0.0223023872931142</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0.0218472928498848</v>
+        <v>-0.000527505213321979</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.0104328081662418</v>
+        <v>0.00577824826126985</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>-0.0188849160533508</v>
+        <v>-0.107036668377345</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.00132558334918359</v>
+        <v>0.0210703709271035</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45822</v>
+        <v>45824</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-0.0306854506698965</v>
+        <v>-0.00617659919707771</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0.0110801864432273</v>
+        <v>-0.0337977341531168</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.02391165358551</v>
+        <v>0.00371638023345861</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>-0.00121666847631391</v>
+        <v>0.0197526139674034</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>-0.00561293280365903</v>
+        <v>0.00203204632472596</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45823</v>
+        <v>45825</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.00915187566567483</v>
+        <v>0.00415623494261977</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>-0.00854719955948671</v>
+        <v>0.0104759304716854</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.0586072329058841</v>
+        <v>0.011276231981586</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.00122193682596915</v>
+        <v>0.0114508261616398</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>-0.00558508536796526</v>
+        <v>-0.00485068684723463</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-0.00136621165877799</v>
+        <v>-0.0297531536528072</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.0192057470662387</v>
+        <v>-0.0131350625851041</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>-0.0262565485831507</v>
+        <v>0.0360724280506418</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>-0.00669052889764674</v>
+        <v>0.0202065192442942</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>-0.000765968119086601</v>
+        <v>-0.0027968082573086</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.0308287435373293</v>
+        <v>-0.00342224908668228</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-0.0211882525183223</v>
+        <v>-0.00407558046916121</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.00000763676697871071</v>
+        <v>0.000924486241817913</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>-0.00682005764640842</v>
+        <v>-0.00848196559734151</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.0841299796183962</v>
+        <v>-0.0106116519178615</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-0.0219167150508097</v>
+        <v>0.00161108187036223</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>-0.0153894127417885</v>
+        <v>-0.0210899979605301</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>-0.0244759677366021</v>
+        <v>-0.0232740171013447</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>-0.0218033590493633</v>
+        <v>-0.133933851139199</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>-0.00307179719174886</v>
+        <v>-0.014230176020998</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45827</v>
+        <v>45829</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-0.00683663161541746</v>
+        <v>0.00306990582128302</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>-0.0183230511960343</v>
+        <v>0.0198043454678542</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.0051207170400728</v>
+        <v>-0.00713664820812909</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.00116289251739969</v>
+        <v>-0.0172377142024453</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.00153577891195268</v>
+        <v>0.00347093023734478</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45828</v>
+        <v>45830</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.0000191386844986694</v>
+        <v>-0.0159191815383284</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>-0.00502807275877574</v>
+        <v>0.0054941877690987</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.00150326859886065</v>
+        <v>-0.0226710172703114</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>-0.0305602079999123</v>
+        <v>0.00877270878494825</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>0.0107997060918122</v>
+        <v>0.0160491762822185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45829</v>
+        <v>45831</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-0.0616648516883088</v>
+        <v>-0.0113867901632006</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.00739987158296461</v>
+        <v>0.0010016774781907</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>0.00632584098245691</v>
+        <v>0.0122081600446899</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>-0.0303316943413577</v>
+        <v>-0.0105874406546498</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.0013242130979648</v>
+        <v>0.0186131165637892</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45830</v>
+        <v>45832</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.0168069929049595</v>
+        <v>0.00962323389553067</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>-0.00321001442911149</v>
+        <v>-0.00033286034211955</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.0102137384236981</v>
+        <v>0.00217321386648906</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>-0.00685414063839694</v>
+        <v>-0.0120416389180871</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>0.0148446018957176</v>
+        <v>-0.0427216741038255</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-0.003682931841336</v>
+        <v>0.024180270576184</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>-0.00675431954730516</v>
+        <v>0.0392176913512695</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>-0.0234059897205268</v>
+        <v>0.0227210288305458</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>0.00692345683032514</v>
+        <v>0.0036791238256653</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>-0.00500497364070692</v>
+        <v>-0.00930892387711633</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.00689755211983021</v>
+        <v>0.00972515923178262</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>-0.00789779447249289</v>
+        <v>-0.0176853334800123</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>0.0164092190851159</v>
+        <v>-0.00170354739981258</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>-0.0126764846481701</v>
+        <v>0.00436690445784751</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>0.00491176502128409</v>
+        <v>-0.00520094254004606</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.0344331700809528</v>
+        <v>-0.0200903147549414</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.00212808898030819</v>
+        <v>-0.0145340334163228</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>-0.0197033954085615</v>
+        <v>-0.00709635470597819</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.00981699883261009</v>
+        <v>0.0309482978042272</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>0.00443555049874021</v>
+        <v>0.00160490092061214</v>
       </c>
     </row>
   </sheetData>
@@ -886,442 +886,442 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45812</v>
+        <v>45814</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.00975397648769605</v>
+        <v>-0.0220548447337368</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>-0.0286904049149719</v>
+        <v>-0.0000453539451103434</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.00854966653390646</v>
+        <v>-0.013853807033347</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>-0.0147767370228488</v>
+        <v>-0.00490584448671838</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>-0.0039555030515632</v>
+        <v>-0.00502763762789091</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45813</v>
+        <v>45815</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-0.0157602676066539</v>
+        <v>0.0385932603134151</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>-0.0105504880346743</v>
+        <v>0.044255331746344</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.00648446426732303</v>
+        <v>0.00402252893404254</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>-0.00561182396453488</v>
+        <v>0.00237745634359079</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>-0.00554786118082794</v>
+        <v>-0.0115901074516007</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45814</v>
+        <v>45816</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-0.0144276698809037</v>
+        <v>0.0627004218994842</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.000587987004202553</v>
+        <v>-0.0230766687757231</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>-0.0122102894966242</v>
+        <v>0.00351370128554638</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.00068387791509809</v>
+        <v>-0.0143869112644326</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>-0.00887542145876506</v>
+        <v>-0.00557503358752486</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45815</v>
+        <v>45817</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.00194414378995495</v>
+        <v>0.0111995984647088</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.0390597250381436</v>
+        <v>-0.00997795172053036</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>-0.00978670373432155</v>
+        <v>0.0156221628586362</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.00505610014585778</v>
+        <v>-0.0112752592475344</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>-0.00223674346972828</v>
+        <v>0.0227734650614032</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45816</v>
+        <v>45818</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.00569089148114851</v>
+        <v>0.0110553731219206</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>-0.0112803170878722</v>
+        <v>-0.000893675791125095</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.00900539217486345</v>
+        <v>0.027791937311134</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.000583676991021196</v>
+        <v>0.0293367664752768</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>-0.00698782016381671</v>
+        <v>-0.00534623802054077</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-0.0305329529888131</v>
+        <v>-0.0149851792253293</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.00204491347266011</v>
+        <v>-0.0243531817390002</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.0208849052675646</v>
+        <v>-0.00132207321660277</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.0042001870756916</v>
+        <v>-0.0113725609152099</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.00489914459391402</v>
+        <v>0.00144418502609657</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.0810499862624952</v>
+        <v>-0.02717956118394</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.00810454871347908</v>
+        <v>0.00537544007901624</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.00660240435491233</v>
+        <v>0.0144859774322708</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>-0.0156148567179866</v>
+        <v>0.0175308972325175</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>-0.0140278622368281</v>
+        <v>-0.00993119595402087</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.0158990091322523</v>
+        <v>0.0211595557628131</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>-0.00435663286851285</v>
+        <v>0.0210445932417655</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>-0.00374271004589866</v>
+        <v>0.021066517824866</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>-0.0226993461093236</v>
+        <v>0.0241848013572775</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>0.00773972474860882</v>
+        <v>0.0227725422285124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45820</v>
+        <v>45822</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-0.00202095622931991</v>
+        <v>-0.00694588173834837</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>0.00343278741892881</v>
+        <v>0.0405131921049895</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>-0.0166016406680283</v>
+        <v>0.00332001840542179</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>-0.00468126466155492</v>
+        <v>0.00356351468069089</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0.0237394429201697</v>
+        <v>0.0165544535774472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45821</v>
+        <v>45823</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-0.0107583910105756</v>
+        <v>0.00678257132576094</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>-0.0128919797450681</v>
+        <v>-0.0005269647417281</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.0075597516512792</v>
+        <v>-0.00897197221933627</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>0.019175519921107</v>
+        <v>0.00984459793225894</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.0210917659181869</v>
+        <v>-0.00175147187522842</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45822</v>
+        <v>45824</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-0.00839211392028774</v>
+        <v>0.00971063507192464</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0.0262681100672619</v>
+        <v>-0.0467355272480625</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.0078819109063123</v>
+        <v>0.00521205080182856</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>-0.00722117437554532</v>
+        <v>-0.0213085091025027</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>-0.0141360459855484</v>
+        <v>-0.00545802562839781</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45823</v>
+        <v>45825</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.0269379725507673</v>
+        <v>-0.0129618194775237</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>0.0559319531473198</v>
+        <v>0.0148366158029478</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>-0.00452247872585654</v>
+        <v>0.00837424999529708</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.0047125876566949</v>
+        <v>0.00941843473876348</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>0.0151014097597666</v>
+        <v>0.0141691973721955</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.00258251635913598</v>
+        <v>-0.0332124662969621</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.00390599444354766</v>
+        <v>0.00905570732891566</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>-0.00153280636196788</v>
+        <v>-0.00933221189461474</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>-0.0215554424664844</v>
+        <v>-0.00637077554051086</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.0039789247660306</v>
+        <v>0.00285899769507453</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.00963214534245108</v>
+        <v>-0.0228630046181817</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-0.00752124688628282</v>
+        <v>0.0225919650511518</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>-0.0218741620705655</v>
+        <v>0.0156215869528203</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>-0.0414390600215241</v>
+        <v>0.0130521219671475</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>-0.00218443549807945</v>
+        <v>-0.00974529921179601</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-0.00195873166316383</v>
+        <v>-0.00147399339361342</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>-0.019172716706937</v>
+        <v>-0.0173260196302532</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>-0.00306915538453663</v>
+        <v>0.00797437397083218</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>-0.0176433740515355</v>
+        <v>-0.00551282699355013</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>-0.00502492079392843</v>
+        <v>-0.0107027817580878</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45827</v>
+        <v>45829</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0.0163997813472321</v>
+        <v>-0.0034270508558372</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.00648315923272573</v>
+        <v>-0.0411895981625816</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.00232043340058288</v>
+        <v>0.040268563760284</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.0151183441129646</v>
+        <v>-0.00228567037102769</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>-0.0205778158174701</v>
+        <v>0.00336476912800875</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45828</v>
+        <v>45830</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-0.0350428978715319</v>
+        <v>-0.00971878671411727</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.00359259500253271</v>
+        <v>-0.0484263948001906</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>-0.0543930703240356</v>
+        <v>-0.000861985903084653</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.0186963957827416</v>
+        <v>0.0213199271701103</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>-0.00346990919863728</v>
+        <v>0.0121157513640834</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45829</v>
+        <v>45831</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.0377437334403563</v>
+        <v>0.00974440355195432</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.011078607082859</v>
+        <v>0.033725890982996</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>-0.00697738431020621</v>
+        <v>-0.0036820950700878</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>-0.00613738212858125</v>
+        <v>-0.000579822703223196</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.0020957594317929</v>
+        <v>0.0152919156487427</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45830</v>
+        <v>45832</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-0.0130190817029482</v>
+        <v>-0.00575864089329807</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.00275785783652253</v>
+        <v>-0.0296207366353313</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.00207520773411995</v>
+        <v>0.00987825847415019</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>-0.00566327896586218</v>
+        <v>0.0172892154355397</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>-0.00588467050567933</v>
+        <v>-0.00279819250664478</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-0.0010235336285998</v>
+        <v>0.0288888478747091</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>-0.0456861985396929</v>
+        <v>0.0102700810587896</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>0.00964563555096064</v>
+        <v>0.00976678186983705</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>-0.00746553435593352</v>
+        <v>-0.00509304760760082</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>-0.00827489353503508</v>
+        <v>0.012924135697219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-0.00148772413101754</v>
+        <v>0.0274080266349053</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>-0.00172009362885228</v>
+        <v>-0.0077767403405751</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>-0.0136804601219518</v>
+        <v>-0.0245692042666956</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>-0.0129594447187478</v>
+        <v>-0.00197771631909415</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>0.0151417600404802</v>
+        <v>0.0106714455810308</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-0.00508921527625067</v>
+        <v>0.0273050187294509</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>-0.0239597534243621</v>
+        <v>0.00830992004261037</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.00265976234137949</v>
+        <v>0.00755910751506838</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.00342180481710785</v>
+        <v>0.024809725161421</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>0.00148933144429509</v>
+        <v>0.000763963507438977</v>
       </c>
     </row>
   </sheetData>
@@ -1368,442 +1368,442 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45812</v>
+        <v>45814</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.0127054113702382</v>
+        <v>0.00308760632260527</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>-0.00675448173662392</v>
+        <v>-0.00573675784948532</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.00000748519755775917</v>
+        <v>-0.000322490769265964</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.00500054749401737</v>
+        <v>0.00970069105907511</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>-0.00285045924003613</v>
+        <v>-0.0066023786344082</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45813</v>
+        <v>45815</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-0.00195037366242778</v>
+        <v>-0.0199920122604846</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.0112254094846871</v>
+        <v>-0.00180307029233273</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>-0.0225507208804636</v>
+        <v>0.00620441712621763</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>-0.000772748897118293</v>
+        <v>-0.00257204330112548</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.00191690370395821</v>
+        <v>0.00179270893243696</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45814</v>
+        <v>45816</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-0.00305223185490099</v>
+        <v>0.00604482369135158</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>-0.0133546654026892</v>
+        <v>0.0279576704817922</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>-0.0108044686547475</v>
+        <v>-0.0251569205167902</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0366377359459606</v>
+        <v>-0.0142605435690561</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.00226285064753073</v>
+        <v>0.00866402027064218</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45815</v>
+        <v>45817</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-0.0084875079688729</v>
+        <v>0.0689703502964485</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>-0.0126778307156488</v>
+        <v>-0.00774170547676878</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.0107720278151868</v>
+        <v>-0.0204281265389521</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>-0.028711567228368</v>
+        <v>-0.00721773741093436</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>-0.00480273996697961</v>
+        <v>-0.0101978184291077</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45816</v>
+        <v>45818</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-0.0616955135990564</v>
+        <v>0.0206269573465336</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>-0.0368869577420264</v>
+        <v>0.00836009809872636</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>-0.00322621614183483</v>
+        <v>0.0290887595661278</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>-0.00435144623819965</v>
+        <v>0.0453684585707275</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>-0.0238688591180113</v>
+        <v>0.0113856896909492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-0.0308682381971786</v>
+        <v>0.0464136220810609</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.0134644177479992</v>
+        <v>-0.0201365175822395</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>-0.0175750504583143</v>
+        <v>-0.00132207321660277</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>-0.0306658216078827</v>
+        <v>0.00214806051780715</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.0116932610096706</v>
+        <v>0.0193765081785228</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.0193601710573503</v>
+        <v>0.0551988521295444</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.00187583419383388</v>
+        <v>-0.00801513570797437</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.0112115027172752</v>
+        <v>-0.00704783573781664</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>-0.00401378821230563</v>
+        <v>0.0108261945772214</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.00968642422701601</v>
+        <v>-0.00049119989218676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-0.0180373703765084</v>
+        <v>0.0164729612773828</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.000852970290980602</v>
+        <v>0.000886165632088612</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>-0.0047444272596669</v>
+        <v>0.0170450945997887</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>-0.000305707935241282</v>
+        <v>0.00639589349199147</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>0.0171476265608117</v>
+        <v>-0.0104410563763184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45820</v>
+        <v>45822</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0.0192147231755197</v>
+        <v>-0.000144986613337706</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>-0.00812851657544717</v>
+        <v>-0.00705625456595649</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.000687107680154215</v>
+        <v>0.0209790697508384</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.0152332817987638</v>
+        <v>-0.00809901006098065</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>-0.000118016290401624</v>
+        <v>-0.0191240083051101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45821</v>
+        <v>45823</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-0.0069093398297717</v>
+        <v>-0.0135601814525798</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0.00963370198264335</v>
+        <v>0.0584436696850522</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>-0.00556860544400534</v>
+        <v>0.0235057097511055</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>0.00579818197294726</v>
+        <v>-0.00475226806471235</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>-0.00740778124287847</v>
+        <v>-0.0212859028886263</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45822</v>
+        <v>45824</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.0207692059654078</v>
+        <v>-0.0107261446914138</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0.0152905879437886</v>
+        <v>0.0225284253057523</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.00224139285015492</v>
+        <v>-0.00640892239756325</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>-0.0565826372483217</v>
+        <v>-0.0117563278211792</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.0889334610377772</v>
+        <v>0.00363232033636597</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45823</v>
+        <v>45825</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.00526512504462256</v>
+        <v>-0.0057540551360735</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>-0.00684628237477102</v>
+        <v>0.0280783127893641</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.0091866755415959</v>
+        <v>0.00790553078113043</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>-0.0304150436849182</v>
+        <v>0.0168370346324965</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>0.0241778701137965</v>
+        <v>0.00180448881992525</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.00713840798363869</v>
+        <v>0.00806573038119755</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.00473882318836823</v>
+        <v>0.00460044747922003</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>0.00633498812197826</v>
+        <v>-0.00337467202848229</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>-0.0162737467450962</v>
+        <v>-0.00468121039073602</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>-0.00155672685193357</v>
+        <v>0.0406633873467445</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.00910554925795946</v>
+        <v>-0.0026482327799739</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-0.0113214781158341</v>
+        <v>0.0217999231293036</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.00373324122731425</v>
+        <v>-0.00877653962169889</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.0085166516255954</v>
+        <v>-0.00503088804100121</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.0108555676305384</v>
+        <v>-0.00222961905897661</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.00512850083637346</v>
+        <v>-0.0097147047617539</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.00895489329283808</v>
+        <v>0.00483809813368995</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.0112608346374614</v>
+        <v>0.0046893493323039</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>-0.0185387454501851</v>
+        <v>-0.0208662915840193</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.00459980931202573</v>
+        <v>0.0000731918068228904</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45827</v>
+        <v>45829</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-0.00792216165792352</v>
+        <v>0.021691788710266</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.025433933677696</v>
+        <v>0.0127210558357574</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>-0.0248795889738021</v>
+        <v>-0.000047339458072644</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.0158886303189197</v>
+        <v>0.0241430910756564</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.00437892184444709</v>
+        <v>0.0102148876063929</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45828</v>
+        <v>45830</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-0.00307951911420305</v>
+        <v>0.00506854215980332</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.00616595253486352</v>
+        <v>-0.00994749239449972</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>-0.00325975634337464</v>
+        <v>-0.0192133337212637</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>-0.0163583826436328</v>
+        <v>-0.0166459472409355</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>0.0183881965394606</v>
+        <v>0.0027869563333976</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45829</v>
+        <v>45831</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.00929354139416251</v>
+        <v>0.0239248655231731</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-0.0176134883994447</v>
+        <v>-0.0160381894891502</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>0.00901842037997207</v>
+        <v>0.00541462435835458</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0.00754490593070984</v>
+        <v>-0.000596901427913129</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.0106569479503103</v>
+        <v>0.000852951359713605</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45830</v>
+        <v>45832</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.0192841382057643</v>
+        <v>0.0313485833728384</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>-0.0102459699181377</v>
+        <v>-0.00332126353561681</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>-0.0228213416194646</v>
+        <v>0.0138180534215002</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>0.0250391026330081</v>
+        <v>-0.0282023545144742</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>-0.0100737129018516</v>
+        <v>0.00220024260061969</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-0.000198471812776529</v>
+        <v>0.0134529525836918</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>-0.00438491640092485</v>
+        <v>0.00187837328174598</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>0.0288496482958658</v>
+        <v>-0.00855957016676584</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>-0.00257715669062123</v>
+        <v>0.000559194444232959</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>0.0137162845317122</v>
+        <v>-0.000402124432160949</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.0518960447252662</v>
+        <v>-0.0013220082970275</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.0148155693723951</v>
+        <v>-0.0403849050360396</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>-0.00677573365876394</v>
+        <v>0.0201668228731019</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>-0.0496909419524593</v>
+        <v>0.0264286096492835</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>-0.00726116420048391</v>
+        <v>-0.0221683017591455</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-0.0020787108439588</v>
+        <v>-0.0243940555651971</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.0304030272330878</v>
+        <v>0.0224327074643087</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.00285276513323648</v>
+        <v>0.00954554702343215</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>-0.00668191359511057</v>
+        <v>-0.0575247969522413</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>-0.0183725399606814</v>
+        <v>-0.0239074416793345</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio_scenarios.xlsx
+++ b/portfolio_scenarios.xlsx
@@ -407,19 +407,19 @@
         <v>45814</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-0.0159176274189066</v>
+        <v>0.0266002171135009</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.0401021338143846</v>
+        <v>0.0184119069885835</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.00286674642384736</v>
+        <v>-0.00904990914554727</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>-0.000268533961261067</v>
+        <v>0.00368656526087358</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>-0.00649507159454172</v>
+        <v>0.00504002822278157</v>
       </c>
     </row>
     <row r="3">
@@ -427,19 +427,19 @@
         <v>45815</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-0.00134964918385065</v>
+        <v>-0.00397501103241846</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.00520749384040228</v>
+        <v>-0.0310851983623197</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>-0.00591528234688075</v>
+        <v>-0.00446638686935938</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>-0.0231761410368445</v>
+        <v>-0.0200367540574877</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.000747716895161697</v>
+        <v>-0.00506378833688449</v>
       </c>
     </row>
     <row r="4">
@@ -447,19 +447,19 @@
         <v>45816</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.0353888631226597</v>
+        <v>-0.00864102855490667</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>-0.0422163934028078</v>
+        <v>0.00575833613669564</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>-0.000965627269882336</v>
+        <v>-0.0000546534619354484</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.00759852439194361</v>
+        <v>0.00368899972887221</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.0109782766255906</v>
+        <v>0.00484148422580103</v>
       </c>
     </row>
     <row r="5">
@@ -467,19 +467,19 @@
         <v>45817</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-0.0179190591779992</v>
+        <v>-0.00540491439694744</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.00450456849939049</v>
+        <v>0.0643612185968694</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.00615929598023879</v>
+        <v>0.0114749232176367</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>-0.0167729246062544</v>
+        <v>-0.00974390587837028</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>-0.00404020856378203</v>
+        <v>0.0122281584976131</v>
       </c>
     </row>
     <row r="6">
@@ -487,19 +487,19 @@
         <v>45818</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-0.00341984466591286</v>
+        <v>-0.0157673205103615</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>-0.00412973538452147</v>
+        <v>0.0187507919901709</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>-0.00425219934943878</v>
+        <v>0.0156843495728701</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.0182615830572512</v>
+        <v>-0.00636394405063488</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>-0.0134713124535697</v>
+        <v>0.00559131491618452</v>
       </c>
     </row>
     <row r="7">
@@ -507,19 +507,19 @@
         <v>45819</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-0.0139165662554716</v>
+        <v>0.0276109467249281</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>-0.00721169109649171</v>
+        <v>0.00427060535858279</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>-0.0311629412041027</v>
+        <v>-0.0501931676236597</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>-0.000678795285227273</v>
+        <v>0.032585802178699</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.0307085390592831</v>
+        <v>-0.00541829344870475</v>
       </c>
     </row>
     <row r="8">
@@ -527,19 +527,19 @@
         <v>45820</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-0.018826177969438</v>
+        <v>0.0141066195608654</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>-0.00680363632015526</v>
+        <v>-0.00564348074107609</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.0178947739232774</v>
+        <v>-0.022283293944642</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>-0.0412252475978512</v>
+        <v>0.00138548359096294</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.0396461295979496</v>
+        <v>0.00223814671241178</v>
       </c>
     </row>
     <row r="9">
@@ -547,19 +547,19 @@
         <v>45821</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-0.0146353791145868</v>
+        <v>0.00812557760898481</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>-0.00571897009539268</v>
+        <v>-0.000311695242301678</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.0130488352087511</v>
+        <v>0.0242588970228605</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>-0.0108907911373033</v>
+        <v>0.00726463192925566</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>-0.00468699010063058</v>
+        <v>-0.0329270507775444</v>
       </c>
     </row>
     <row r="10">
@@ -567,19 +567,19 @@
         <v>45822</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-0.00221212246070971</v>
+        <v>-0.00190812836490754</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>-0.00406363411571713</v>
+        <v>-0.0213838738258159</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.000273906945341256</v>
+        <v>-0.0120080185095097</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.0174692930072909</v>
+        <v>-0.0918502021224684</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>-0.0000445594567574355</v>
+        <v>-0.00479291719565437</v>
       </c>
     </row>
     <row r="11">
@@ -587,19 +587,19 @@
         <v>45823</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-0.0223023872931142</v>
+        <v>0.022755314760017</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>-0.000527505213321979</v>
+        <v>-0.0021565518664919</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.00577824826126985</v>
+        <v>0.00987877678938457</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>-0.107036668377345</v>
+        <v>-0.0227684133984366</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.0210703709271035</v>
+        <v>0.000180983727128753</v>
       </c>
     </row>
     <row r="12">
@@ -607,19 +607,19 @@
         <v>45824</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-0.00617659919707771</v>
+        <v>0.0352323732405538</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>-0.0337977341531168</v>
+        <v>-0.000597552360318803</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.00371638023345861</v>
+        <v>-0.00426810014266036</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0.0197526139674034</v>
+        <v>-0.0455565340434627</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.00203204632472596</v>
+        <v>0.0069485843065454</v>
       </c>
     </row>
     <row r="13">
@@ -627,19 +627,19 @@
         <v>45825</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.00415623494261977</v>
+        <v>-0.0361822358164813</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>0.0104759304716854</v>
+        <v>0.00578066847005879</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.011276231981586</v>
+        <v>0.00935824837045491</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.0114508261616398</v>
+        <v>-0.0126767283642273</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>-0.00485068684723463</v>
+        <v>-0.00804448979619049</v>
       </c>
     </row>
     <row r="14">
@@ -647,19 +647,19 @@
         <v>45826</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-0.0297531536528072</v>
+        <v>-0.0358525359077739</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>-0.0131350625851041</v>
+        <v>0.0207742759295064</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>0.0360724280506418</v>
+        <v>0.00701248395116802</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>0.0202065192442942</v>
+        <v>-0.0212964603421641</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>-0.0027968082573086</v>
+        <v>-0.00142586861272562</v>
       </c>
     </row>
     <row r="15">
@@ -667,19 +667,19 @@
         <v>45827</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-0.00342224908668228</v>
+        <v>0.0139324231798729</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-0.00407558046916121</v>
+        <v>-0.0571995957490372</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.000924486241817913</v>
+        <v>0.0082968853751277</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>-0.00848196559734151</v>
+        <v>-0.0232718589023877</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>-0.0106116519178615</v>
+        <v>-0.00442637071485026</v>
       </c>
     </row>
     <row r="16">
@@ -687,19 +687,19 @@
         <v>45828</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.00161108187036223</v>
+        <v>0.0198624281194483</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>-0.0210899979605301</v>
+        <v>0.0210536927687892</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>-0.0232740171013447</v>
+        <v>-0.0151456412081558</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>-0.133933851139199</v>
+        <v>0.0068104096574825</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>-0.014230176020998</v>
+        <v>0.0227335096809062</v>
       </c>
     </row>
     <row r="17">
@@ -707,19 +707,19 @@
         <v>45829</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0.00306990582128302</v>
+        <v>0.0137246851419086</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.0198043454678542</v>
+        <v>-0.00690359939256396</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>-0.00713664820812909</v>
+        <v>0.0584904092529146</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>-0.0172377142024453</v>
+        <v>0.00213562367418371</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.00347093023734478</v>
+        <v>0.0324908822724283</v>
       </c>
     </row>
     <row r="18">
@@ -727,19 +727,19 @@
         <v>45830</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-0.0159191815383284</v>
+        <v>-0.0280552490604861</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.0054941877690987</v>
+        <v>-0.000227433542070864</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>-0.0226710172703114</v>
+        <v>0.0201098830819165</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.00877270878494825</v>
+        <v>-0.0108324481369107</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>0.0160491762822185</v>
+        <v>0.024759015484299</v>
       </c>
     </row>
     <row r="19">
@@ -747,19 +747,19 @@
         <v>45831</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-0.0113867901632006</v>
+        <v>-0.0226641639086771</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.0010016774781907</v>
+        <v>0.0140223077894156</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>0.0122081600446899</v>
+        <v>0.0208011951973191</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>-0.0105874406546498</v>
+        <v>0.0584825579268095</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.0186131165637892</v>
+        <v>0.00424521200716723</v>
       </c>
     </row>
     <row r="20">
@@ -767,19 +767,19 @@
         <v>45832</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.00962323389553067</v>
+        <v>0.0318600352661455</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>-0.00033286034211955</v>
+        <v>0.0142281102749607</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.00217321386648906</v>
+        <v>-0.00066580169481249</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>-0.0120416389180871</v>
+        <v>-0.0043421617133235</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>-0.0427216741038255</v>
+        <v>0.0137459227081435</v>
       </c>
     </row>
     <row r="21">
@@ -787,19 +787,19 @@
         <v>45833</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0.024180270576184</v>
+        <v>-0.0243394681891658</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.0392176913512695</v>
+        <v>0.0190771641260892</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>0.0227210288305458</v>
+        <v>0.00265339136273969</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>0.0036791238256653</v>
+        <v>-0.00929120161614002</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>-0.00930892387711633</v>
+        <v>-0.025124859962263</v>
       </c>
     </row>
     <row r="22">
@@ -807,19 +807,19 @@
         <v>45834</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.00972515923178262</v>
+        <v>-0.0535187162654041</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>-0.0176853334800123</v>
+        <v>-0.00623455355762967</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>-0.00170354739981258</v>
+        <v>-0.0218337323811972</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>0.00436690445784751</v>
+        <v>-0.00108706082651418</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>-0.00520094254004606</v>
+        <v>0.00257191992579798</v>
       </c>
     </row>
     <row r="23">
@@ -827,19 +827,19 @@
         <v>45835</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-0.0200903147549414</v>
+        <v>0.00632176709587041</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>-0.0145340334163228</v>
+        <v>-0.00136320362341458</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>-0.00709635470597819</v>
+        <v>0.0209783210732777</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.0309482978042272</v>
+        <v>0.0356685823665176</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>0.00160490092061214</v>
+        <v>0.00665589523641456</v>
       </c>
     </row>
   </sheetData>
@@ -889,19 +889,19 @@
         <v>45814</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-0.0220548447337368</v>
+        <v>0.00813016336620938</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>-0.0000453539451103434</v>
+        <v>0.00771342858234508</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>-0.013853807033347</v>
+        <v>0.0132661238254386</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>-0.00490584448671838</v>
+        <v>-0.00249513101217878</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>-0.00502763762789091</v>
+        <v>0.0263785591197152</v>
       </c>
     </row>
     <row r="3">
@@ -909,19 +909,19 @@
         <v>45815</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0.0385932603134151</v>
+        <v>-0.0147267416346935</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.044255331746344</v>
+        <v>-0.00738151008130155</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.00402252893404254</v>
+        <v>0.000952280572544319</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.00237745634359079</v>
+        <v>0.0202663020228155</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>-0.0115901074516007</v>
+        <v>0.0316147897030556</v>
       </c>
     </row>
     <row r="4">
@@ -929,19 +929,19 @@
         <v>45816</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.0627004218994842</v>
+        <v>0.00358109248351411</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>-0.0230766687757231</v>
+        <v>0.000281200724587401</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.00351370128554638</v>
+        <v>0.00356775136332854</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>-0.0143869112644326</v>
+        <v>-0.0528222048897553</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>-0.00557503358752486</v>
+        <v>0.0396470524308404</v>
       </c>
     </row>
     <row r="5">
@@ -949,19 +949,19 @@
         <v>45817</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.0111995984647088</v>
+        <v>-0.0297472576792328</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>-0.00997795172053036</v>
+        <v>-0.0337975826847886</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.0156221628586362</v>
+        <v>0.00533042598244223</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>-0.0112752592475344</v>
+        <v>0.00276555511423553</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0.0227734650614032</v>
+        <v>0.0133366285049018</v>
       </c>
     </row>
     <row r="6">
@@ -969,19 +969,19 @@
         <v>45818</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.0110553731219206</v>
+        <v>-0.003899948779025</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>-0.000893675791125095</v>
+        <v>0.00271636056809692</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.027791937311134</v>
+        <v>0.0271580023734678</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.0293367664752768</v>
+        <v>-0.0477402893609901</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>-0.00534623802054077</v>
+        <v>-0.0215082275923305</v>
       </c>
     </row>
     <row r="7">
@@ -989,19 +989,19 @@
         <v>45819</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-0.0149851792253293</v>
+        <v>0.00010534591299833</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>-0.0243531817390002</v>
+        <v>-0.00930454168949764</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>-0.00132207321660277</v>
+        <v>0.0120344872780366</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>-0.0113725609152099</v>
+        <v>0.00795326804200518</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.00144418502609657</v>
+        <v>0.00864198085421218</v>
       </c>
     </row>
     <row r="8">
@@ -1009,19 +1009,19 @@
         <v>45820</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-0.02717956118394</v>
+        <v>0.00785174917893002</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.00537544007901624</v>
+        <v>0.0125035737093294</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.0144859774322708</v>
+        <v>-0.0133798091666106</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0175308972325175</v>
+        <v>0.0128295964465838</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>-0.00993119595402087</v>
+        <v>-0.0134717738700151</v>
       </c>
     </row>
     <row r="9">
@@ -1029,19 +1029,19 @@
         <v>45821</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.0211595557628131</v>
+        <v>-0.0176199099601375</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.0210445932417655</v>
+        <v>0.00471659781800776</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.021066517824866</v>
+        <v>-0.0939361714991916</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0241848013572775</v>
+        <v>-0.0174569751017954</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>0.0227725422285124</v>
+        <v>0.0129085365291181</v>
       </c>
     </row>
     <row r="10">
@@ -1049,19 +1049,19 @@
         <v>45822</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-0.00694588173834837</v>
+        <v>0.00446266873036272</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>0.0405131921049895</v>
+        <v>0.000646830362761002</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.00332001840542179</v>
+        <v>-0.0798198686647092</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.00356351468069089</v>
+        <v>-0.00674752569537452</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0.0165544535774472</v>
+        <v>0.00527156006542682</v>
       </c>
     </row>
     <row r="11">
@@ -1069,19 +1069,19 @@
         <v>45823</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.00678257132576094</v>
+        <v>0.0180531936960862</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>-0.0005269647417281</v>
+        <v>-0.0139336181710002</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>-0.00897197221933627</v>
+        <v>-0.0138543253485813</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>0.00984459793225894</v>
+        <v>-0.00431735930624629</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>-0.00175147187522842</v>
+        <v>0.00317875334671784</v>
       </c>
     </row>
     <row r="12">
@@ -1089,19 +1089,19 @@
         <v>45824</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.00971063507192464</v>
+        <v>-0.0237040508300712</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>-0.0467355272480625</v>
+        <v>-0.0174970558115597</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.00521205080182856</v>
+        <v>0.014104274032486</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>-0.0213085091025027</v>
+        <v>-0.0281097649518223</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>-0.00545802562839781</v>
+        <v>0.04114108123817</v>
       </c>
     </row>
     <row r="13">
@@ -1109,19 +1109,19 @@
         <v>45825</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-0.0129618194775237</v>
+        <v>0.0365969772664681</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>0.0148366158029478</v>
+        <v>-0.00649431020583422</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.00837424999529708</v>
+        <v>0.000363283548856673</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.00941843473876348</v>
+        <v>0.0263270677860406</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>0.0141691973721955</v>
+        <v>-0.00216472169172752</v>
       </c>
     </row>
     <row r="14">
@@ -1129,19 +1129,19 @@
         <v>45826</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-0.0332124662969621</v>
+        <v>0.0207062691201942</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.00905570732891566</v>
+        <v>0.00992967238878747</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>-0.00933221189461474</v>
+        <v>0.0146797074504818</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>-0.00637077554051086</v>
+        <v>-0.00418710731335541</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.00285899769507453</v>
+        <v>0.00125777609423472</v>
       </c>
     </row>
     <row r="15">
@@ -1149,19 +1149,19 @@
         <v>45827</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-0.0228630046181817</v>
+        <v>-0.0330542749676481</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.0225919650511518</v>
+        <v>0.0360179909222156</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.0156215869528203</v>
+        <v>-0.0307095474200333</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.0130521219671475</v>
+        <v>-0.00832775770394465</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>-0.00974529921179601</v>
+        <v>0.00828023072557943</v>
       </c>
     </row>
     <row r="16">
@@ -1169,19 +1169,19 @@
         <v>45828</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-0.00147399339361342</v>
+        <v>-0.00286916611074901</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>-0.0173260196302532</v>
+        <v>-0.014287360191265</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.00797437397083218</v>
+        <v>-0.0117186313765871</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>-0.00551282699355013</v>
+        <v>0.0220379413996727</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>-0.0107027817580878</v>
+        <v>0.00483871572712867</v>
       </c>
     </row>
     <row r="17">
@@ -1189,19 +1189,19 @@
         <v>45829</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-0.0034270508558372</v>
+        <v>0.0054630295750226</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>-0.0411895981625816</v>
+        <v>0.0258712897639516</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.040268563760284</v>
+        <v>0.0215703192221152</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>-0.00228567037102769</v>
+        <v>-0.00506497213647116</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.00336476912800875</v>
+        <v>-0.0387039624322541</v>
       </c>
     </row>
     <row r="18">
@@ -1209,19 +1209,19 @@
         <v>45830</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-0.00971878671411727</v>
+        <v>0.0825857376321781</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>-0.0484263948001906</v>
+        <v>0.0105278688698462</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>-0.000861985903084653</v>
+        <v>0.00370843885659659</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.0213199271701103</v>
+        <v>-0.000596047491678632</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>0.0121157513640834</v>
+        <v>-0.00179112046658943</v>
       </c>
     </row>
     <row r="19">
@@ -1229,19 +1229,19 @@
         <v>45831</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.00974440355195432</v>
+        <v>0.00791845524031366</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.033725890982996</v>
+        <v>0.00404332055112552</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>-0.0036820950700878</v>
+        <v>-0.00237053362845942</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>-0.000579822703223196</v>
+        <v>0.0211173086581525</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.0152919156487427</v>
+        <v>-0.000237398761155259</v>
       </c>
     </row>
     <row r="20">
@@ -1249,19 +1249,19 @@
         <v>45832</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-0.00575864089329807</v>
+        <v>0.0235694707425876</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>-0.0296207366353313</v>
+        <v>0.0291619280988518</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.00987825847415019</v>
+        <v>0.0343833446581948</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>0.0172892154355397</v>
+        <v>0.00265209858579695</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>-0.00279819250664478</v>
+        <v>0.000202143730295744</v>
       </c>
     </row>
     <row r="21">
@@ -1269,19 +1269,19 @@
         <v>45833</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0.0288888478747091</v>
+        <v>-0.0121744493032024</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.0102700810587896</v>
+        <v>0.0114099886320249</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>0.00976678186983705</v>
+        <v>-0.00495290900976488</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>-0.00509304760760082</v>
+        <v>0.0369959525139035</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>0.012924135697219</v>
+        <v>-0.00641978766057993</v>
       </c>
     </row>
     <row r="22">
@@ -1289,19 +1289,19 @@
         <v>45834</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.0274080266349053</v>
+        <v>-0.00334044607732441</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>-0.0077767403405751</v>
+        <v>0.0025235459519455</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>-0.0245692042666956</v>
+        <v>-0.00548299889021932</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>-0.00197771631909415</v>
+        <v>-0.0129249799679637</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>0.0106714455810308</v>
+        <v>-0.0174504412539983</v>
       </c>
     </row>
     <row r="23">
@@ -1309,19 +1309,19 @@
         <v>45835</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.0273050187294509</v>
+        <v>-0.0228126452699433</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.00830992004261037</v>
+        <v>0.00883872653782805</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.00755910751506838</v>
+        <v>-0.00519709379567054</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.024809725161421</v>
+        <v>-0.00704169667062682</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>0.000763963507438977</v>
+        <v>0.0134457692492389</v>
       </c>
     </row>
   </sheetData>
@@ -1371,19 +1371,19 @@
         <v>45814</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.00308760632260527</v>
+        <v>-0.000075992548292961</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>-0.00573675784948532</v>
+        <v>-0.0201589191980091</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>-0.000322490769265964</v>
+        <v>0.00245968206905772</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.00970069105907511</v>
+        <v>0.0146880859144682</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>-0.0066023786344082</v>
+        <v>0.0841222365689254</v>
       </c>
     </row>
     <row r="3">
@@ -1391,19 +1391,19 @@
         <v>45815</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-0.0199920122604846</v>
+        <v>0.00678867676668831</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>-0.00180307029233273</v>
+        <v>-0.0410939829250691</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.00620441712621763</v>
+        <v>-0.00783854339341561</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>-0.00257204330112548</v>
+        <v>-0.019044651998158</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.00179270893243696</v>
+        <v>-0.0140073354964481</v>
       </c>
     </row>
     <row r="4">
@@ -1411,19 +1411,19 @@
         <v>45816</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.00604482369135158</v>
+        <v>-0.00307052801895789</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.0279576704817922</v>
+        <v>-0.0363435910691434</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>-0.0251569205167902</v>
+        <v>0.00334729584208773</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>-0.0142605435690561</v>
+        <v>0.00464239039810589</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.00866402027064218</v>
+        <v>-0.00812479356375165</v>
       </c>
     </row>
     <row r="5">
@@ -1431,19 +1431,19 @@
         <v>45817</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.0689703502964485</v>
+        <v>0.0385919500970653</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>-0.00774170547676878</v>
+        <v>0.00520938200691625</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>-0.0204281265389521</v>
+        <v>-0.0207567221211701</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>-0.00721773741093436</v>
+        <v>0.00944228056767474</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>-0.0101978184291077</v>
+        <v>-0.0115905688680461</v>
       </c>
     </row>
     <row r="6">
@@ -1451,19 +1451,19 @@
         <v>45818</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.0206269573465336</v>
+        <v>-0.0112011800855245</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.00836009809872636</v>
+        <v>0.0317616154696372</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.0290887595661278</v>
+        <v>0.00776213142099981</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.0453684585707275</v>
+        <v>-0.0305639544847838</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0.0113856896909492</v>
+        <v>0.0124270785911648</v>
       </c>
     </row>
     <row r="7">
@@ -1471,19 +1471,19 @@
         <v>45819</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0.0464136220810609</v>
+        <v>-0.00344646522860554</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>-0.0201365175822395</v>
+        <v>-0.050027847523534</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>-0.00132207321660277</v>
+        <v>0.00520534574501604</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.00214806051780715</v>
+        <v>-0.00583602835074879</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.0193765081785228</v>
+        <v>0.0147964163508863</v>
       </c>
     </row>
     <row r="8">
@@ -1491,19 +1491,19 @@
         <v>45820</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.0551988521295444</v>
+        <v>0.00881327169681577</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>-0.00801513570797437</v>
+        <v>0.0153522581203997</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>-0.00704783573781664</v>
+        <v>-0.00968977469407317</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0108261945772214</v>
+        <v>0.0242306743973941</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>-0.00049119989218676</v>
+        <v>0.00157043634264965</v>
       </c>
     </row>
     <row r="9">
@@ -1511,19 +1511,19 @@
         <v>45821</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.0164729612773828</v>
+        <v>-0.0013803129245971</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.000886165632088612</v>
+        <v>0.0078825436918684</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.0170450945997887</v>
+        <v>-0.0169340074179202</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.00639589349199147</v>
+        <v>-0.0169290372668185</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>-0.0104410563763184</v>
+        <v>0.02495100094417</v>
       </c>
     </row>
     <row r="10">
@@ -1531,19 +1531,19 @@
         <v>45822</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-0.000144986613337706</v>
+        <v>-0.0462510555301089</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>-0.00705625456595649</v>
+        <v>0.00979236580351042</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.0209790697508384</v>
+        <v>0.00803550736979405</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>-0.00809901006098065</v>
+        <v>0.011815966981559</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>-0.0191240083051101</v>
+        <v>-0.0241942380097079</v>
       </c>
     </row>
     <row r="11">
@@ -1551,19 +1551,19 @@
         <v>45823</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-0.0135601814525798</v>
+        <v>-0.0129878665182734</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0.0584436696850522</v>
+        <v>-0.00573695259447864</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.0235057097511055</v>
+        <v>-0.00864868536599562</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>-0.00475226806471235</v>
+        <v>0.026438002947863</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>-0.0212859028886263</v>
+        <v>-0.0112831093065634</v>
       </c>
     </row>
     <row r="12">
@@ -1571,19 +1571,19 @@
         <v>45824</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-0.0107261446914138</v>
+        <v>-0.00255714828703183</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0.0225284253057523</v>
+        <v>0.00317997620072457</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>-0.00640892239756325</v>
+        <v>0.00183228840812733</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>-0.0117563278211792</v>
+        <v>-0.0278448808277794</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.00363232033636597</v>
+        <v>0.00525058349766179</v>
       </c>
     </row>
     <row r="13">
@@ -1591,19 +1591,19 @@
         <v>45825</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-0.0057540551360735</v>
+        <v>-0.00393550600615628</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>0.0280783127893641</v>
+        <v>-0.0183717599703447</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.00790553078113043</v>
+        <v>0.0104740934591168</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.0168370346324965</v>
+        <v>0.0211257875411436</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>0.00180448881992525</v>
+        <v>-0.000950579771163661</v>
       </c>
     </row>
     <row r="14">
@@ -1611,19 +1611,19 @@
         <v>45826</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.00806573038119755</v>
+        <v>-0.00105930991887684</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.00460044747922003</v>
+        <v>-0.0200944456290652</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>-0.00337467202848229</v>
+        <v>-0.00306226866094144</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>-0.00468121039073602</v>
+        <v>-0.0032496684029419</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.0406633873467445</v>
+        <v>-0.00455823270511768</v>
       </c>
     </row>
     <row r="15">
@@ -1631,19 +1631,19 @@
         <v>45827</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-0.0026482327799739</v>
+        <v>-0.00105848293414578</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.0217999231293036</v>
+        <v>0.018393854613145</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>-0.00877653962169889</v>
+        <v>-0.0304671184854686</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>-0.00503088804100121</v>
+        <v>0.00262076677745456</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>-0.00222961905897661</v>
+        <v>-0.0115596743004923</v>
       </c>
     </row>
     <row r="16">
@@ -1651,19 +1651,19 @@
         <v>45828</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-0.0097147047617539</v>
+        <v>-0.00438815117501076</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.00483809813368995</v>
+        <v>0.0288044289571076</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.0046893493323039</v>
+        <v>-0.00553607165727194</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>-0.0208662915840193</v>
+        <v>-0.0022848164347932</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.0000731918068228904</v>
+        <v>-0.016754437905999</v>
       </c>
     </row>
     <row r="17">
@@ -1671,19 +1671,19 @@
         <v>45829</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0.021691788710266</v>
+        <v>-0.087510441480551</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.0127210558357574</v>
+        <v>-0.0490218777157329</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>-0.000047339458072644</v>
+        <v>-0.0158184125237879</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.0241430910756564</v>
+        <v>-0.0306095891932945</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.0102148876063929</v>
+        <v>0.00530040615154336</v>
       </c>
     </row>
     <row r="18">
@@ -1691,19 +1691,19 @@
         <v>45830</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.00506854215980332</v>
+        <v>0.00207050236623067</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>-0.00994749239449972</v>
+        <v>0.0056808718061017</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>-0.0192133337212637</v>
+        <v>0.0176275560828709</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>-0.0166459472409355</v>
+        <v>-0.0426054609893548</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>0.0027869563333976</v>
+        <v>-0.00899190491761345</v>
       </c>
     </row>
     <row r="19">
@@ -1711,19 +1711,19 @@
         <v>45831</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.0239248655231731</v>
+        <v>0.0229279732561017</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-0.0160381894891502</v>
+        <v>-0.018648773333898</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>0.00541462435835458</v>
+        <v>-0.00676218067029737</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>-0.000596901427913129</v>
+        <v>-0.0720187279924086</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.000852951359713605</v>
+        <v>-0.0191260846791143</v>
       </c>
     </row>
     <row r="20">
@@ -1731,19 +1731,19 @@
         <v>45832</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.0313485833728384</v>
+        <v>-0.0431036847139044</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>-0.00332126353561681</v>
+        <v>0.0127770180131375</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.0138180534215002</v>
+        <v>-0.00222267200362958</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>-0.0282023545144742</v>
+        <v>-0.0287509327246319</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>0.00220024260061969</v>
+        <v>0.00584262783479361</v>
       </c>
     </row>
     <row r="21">
@@ -1751,19 +1751,19 @@
         <v>45833</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0.0134529525836918</v>
+        <v>0.0117402390201567</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.00187837328174598</v>
+        <v>-0.0369976887131229</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>-0.00855957016676584</v>
+        <v>0.0123799442148852</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>0.000559194444232959</v>
+        <v>-0.00996536105906223</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>-0.000402124432160949</v>
+        <v>-0.0277283144289595</v>
       </c>
     </row>
     <row r="22">
@@ -1771,19 +1771,19 @@
         <v>45834</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-0.0013220082970275</v>
+        <v>0.00874830500148209</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>-0.0403849050360396</v>
+        <v>0.0531078263567419</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>0.0201668228731019</v>
+        <v>-0.027432370812256</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>0.0264286096492835</v>
+        <v>0.0110230310859794</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>-0.0221683017591455</v>
+        <v>-0.019989226415689</v>
       </c>
     </row>
     <row r="23">
@@ -1791,19 +1791,19 @@
         <v>45835</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-0.0243940555651971</v>
+        <v>0.0206066643249205</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.0224327074643087</v>
+        <v>0.0149634568463239</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.00954554702343215</v>
+        <v>0.00839120203018274</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>-0.0575247969522413</v>
+        <v>-0.00503771953087718</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>-0.0239074416793345</v>
+        <v>0.00894066810236706</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio_scenarios.xlsx
+++ b/portfolio_scenarios.xlsx
@@ -404,442 +404,442 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.0266002171135009</v>
+        <v>-0.0104287971134065</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.0184119069885835</v>
+        <v>0.00964383093371993</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>-0.00904990914554727</v>
+        <v>-0.00157092788369578</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.00368656526087358</v>
+        <v>0.0567122100849919</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.00504002822278157</v>
+        <v>-0.00444045287036114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-0.00397501103241846</v>
+        <v>0.0305215196740608</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>-0.0310851983623197</v>
+        <v>0.00694733944382095</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>-0.00446638686935938</v>
+        <v>0.00429958716934905</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>-0.0200367540574877</v>
+        <v>0.00304164399043483</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>-0.00506378833688449</v>
+        <v>0.012332968878022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-0.00864102855490667</v>
+        <v>0.000168939916818293</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.00575833613669564</v>
+        <v>-0.0102496207939727</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>-0.0000546534619354484</v>
+        <v>0.00861426012848907</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.00368899972887221</v>
+        <v>-0.0425669285336589</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.00484148422580103</v>
+        <v>-0.000436334205525369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-0.00540491439694744</v>
+        <v>-0.00727522834207411</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.0643612185968694</v>
+        <v>0.00532576026220568</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.0114749232176367</v>
+        <v>0.00305105295483831</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>-0.00974390587837028</v>
+        <v>0.00866454071713777</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0.0122281584976131</v>
+        <v>0.00404282474155455</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-0.0157673205103615</v>
+        <v>0.022596946986259</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.0187507919901709</v>
+        <v>-0.00748134146095299</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.0156843495728701</v>
+        <v>-0.0306885933942831</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>-0.00636394405063488</v>
+        <v>0.00457102920904977</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0.00559131491618452</v>
+        <v>0.0187151793358694</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0.0276109467249281</v>
+        <v>0.0366962419243484</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.00427060535858279</v>
+        <v>0.00446572948503117</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>-0.0501931676236597</v>
+        <v>-0.0072159197907254</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.032585802178699</v>
+        <v>0.0095523365065466</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>-0.00541829344870475</v>
+        <v>-0.00628530023266835</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.0141066195608654</v>
+        <v>-0.00778322228516825</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>-0.00564348074107609</v>
+        <v>0.0083819990485167</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>-0.022283293944642</v>
+        <v>0.0148074646883009</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.00138548359096294</v>
+        <v>0.0125232403835942</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.00223814671241178</v>
+        <v>-0.00147751180235805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.00812557760898481</v>
+        <v>0.0157165045582697</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>-0.000311695242301678</v>
+        <v>0.01654450332255</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.0242588970228605</v>
+        <v>0.0254786170856592</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.00726463192925566</v>
+        <v>0.00196129360029355</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>-0.0329270507775444</v>
+        <v>-0.000437591992303527</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-0.00190812836490754</v>
+        <v>0.000650148541401212</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>-0.0213838738258159</v>
+        <v>-0.000203070350429852</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>-0.0120080185095097</v>
+        <v>-0.013524890873878</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>-0.0918502021224684</v>
+        <v>-0.0474312690533159</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>-0.00479291719565437</v>
+        <v>-0.0126227320808266</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.022755314760017</v>
+        <v>-0.0174434870197416</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>-0.0021565518664919</v>
+        <v>0.0128221493556655</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.00987877678938457</v>
+        <v>-0.00980055604749051</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>-0.0227684133984366</v>
+        <v>-0.00991502775645968</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.000180983727128753</v>
+        <v>0.0124179511069474</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.0352323732405538</v>
+        <v>0.0271824044341356</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>-0.000597552360318803</v>
+        <v>-0.0182712531296851</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>-0.00426810014266036</v>
+        <v>0.0203429637816415</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>-0.0455565340434627</v>
+        <v>0.00955924657523416</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.0069485843065454</v>
+        <v>-0.0165311395112936</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-0.0361822358164813</v>
+        <v>-0.0254666326996026</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>0.00578066847005879</v>
+        <v>0.00955820725980516</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.00935824837045491</v>
+        <v>0.0291117857988743</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>-0.0126767283642273</v>
+        <v>0.00771370708424673</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>-0.00804448979619049</v>
+        <v>0.0114135188634815</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-0.0358525359077739</v>
+        <v>-0.0251748674101337</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.0207742759295064</v>
+        <v>-0.0226879457239812</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>0.00701248395116802</v>
+        <v>0.000986282033547937</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>-0.0212964603421641</v>
+        <v>-0.00468315213708283</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>-0.00142586861272562</v>
+        <v>-0.0164922664573177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.0139324231798729</v>
+        <v>0.0237408126322693</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>-0.0571995957490372</v>
+        <v>0.000998217941906468</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.0082968853751277</v>
+        <v>0.00025282831861003</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>-0.0232718589023877</v>
+        <v>0.00188515181108453</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>-0.00442637071485026</v>
+        <v>0.000411878964789523</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.0198624281194483</v>
+        <v>-0.0123997296907652</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.0210536927687892</v>
+        <v>-0.00712314747503107</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>-0.0151456412081558</v>
+        <v>-0.00932834817152434</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0.0068104096574825</v>
+        <v>0.0164189147913258</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.0227335096809062</v>
+        <v>-0.00777394511071236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0.0137246851419086</v>
+        <v>0.0428408575170658</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>-0.00690359939256396</v>
+        <v>0.00270323167610617</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.0584904092529146</v>
+        <v>0.00456737248370498</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.00213562367418371</v>
+        <v>0.0197831509049541</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.0324908822724283</v>
+        <v>-0.00244191313249083</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-0.0280552490604861</v>
+        <v>0.0402321017391747</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>-0.000227433542070864</v>
+        <v>-0.00213693316346681</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.0201098830819165</v>
+        <v>-0.0139647065653874</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>-0.0108324481369107</v>
+        <v>-0.00413304023286497</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>0.024759015484299</v>
+        <v>0.0175421634221328</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-0.0226641639086771</v>
+        <v>-0.0000309913335527943</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.0140223077894156</v>
+        <v>0.00185181758961599</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>0.0208011951973191</v>
+        <v>-0.0376218403919335</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0.0584825579268095</v>
+        <v>-0.0000478667324859705</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0.00424521200716723</v>
+        <v>-0.0179490627590813</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.0318600352661455</v>
+        <v>-0.0112958229645115</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.0142281102749607</v>
+        <v>0.0217757475598132</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>-0.00066580169481249</v>
+        <v>0.0069432838426449</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>-0.0043421617133235</v>
+        <v>-0.00616475544979735</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>0.0137459227081435</v>
+        <v>-0.0206624823349322</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-0.0243394681891658</v>
+        <v>0.0230878234084179</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.0190771641260892</v>
+        <v>-0.0165299230925002</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>0.00265339136273969</v>
+        <v>-0.0306106017609725</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>-0.00929120161614002</v>
+        <v>-0.00598584031438985</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>-0.025124859962263</v>
+        <v>-0.00859350124430666</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-0.0535187162654041</v>
+        <v>-0.0240013282217958</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>-0.00623455355762967</v>
+        <v>-0.0235180040423211</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>-0.0218337323811972</v>
+        <v>-0.0110157893295891</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>-0.00108706082651418</v>
+        <v>0.00236795527319972</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>0.00257191992579798</v>
+        <v>-0.00317435830798252</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.00632176709587041</v>
+        <v>-0.00124423584225302</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>-0.00136320362341458</v>
+        <v>0.000362675291158042</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.0209783210732777</v>
+        <v>-0.0145020295291731</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.0356685823665176</v>
+        <v>-0.0389297058311736</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>0.00665589523641456</v>
+        <v>0.0118362978570238</v>
       </c>
     </row>
   </sheetData>
@@ -886,442 +886,442 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.00813016336620938</v>
+        <v>0.0405363914755481</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.00771342858234508</v>
+        <v>-0.0122096507184969</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.0132661238254386</v>
+        <v>0.0105327131199687</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>-0.00249513101217878</v>
+        <v>0.0194324886563778</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.0263785591197152</v>
+        <v>0.0268644372940096</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-0.0147267416346935</v>
+        <v>-0.0381844772856084</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>-0.00738151008130155</v>
+        <v>-0.00505318859253235</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.000952280572544319</v>
+        <v>0.00381161817533506</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.0202663020228155</v>
+        <v>0.0198482221302333</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.0316147897030556</v>
+        <v>0.0138658199178069</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.00358109248351411</v>
+        <v>0.00189290260929298</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.000281200724587401</v>
+        <v>0.0344826099603922</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.00356775136332854</v>
+        <v>-0.0166918669137687</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>-0.0528222048897553</v>
+        <v>0.0366903859008045</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.0396470524308404</v>
+        <v>-0.0188424548279535</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-0.0297472576792328</v>
+        <v>0.0112816139225282</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>-0.0337975826847886</v>
+        <v>0.0111278941222595</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.00533042598244223</v>
+        <v>0.00340931947682253</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.00276555511423553</v>
+        <v>-0.0220548430357613</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0.0133366285049018</v>
+        <v>-0.0140308656282419</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-0.003899948779025</v>
+        <v>-0.0462053830506764</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.00271636056809692</v>
+        <v>-0.0114808016164497</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.0271580023734678</v>
+        <v>-0.00196436459740585</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>-0.0477402893609901</v>
+        <v>-0.00818003402361672</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>-0.0215082275923305</v>
+        <v>-0.00415411217271018</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0.00010534591299833</v>
+        <v>-0.0211643011488447</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>-0.00930454168949764</v>
+        <v>-0.0137138167570917</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.0120344872780366</v>
+        <v>0.00451892880470456</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.00795326804200518</v>
+        <v>0.0261344202593042</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.00864198085421218</v>
+        <v>0.00314040768797016</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.00785174917893002</v>
+        <v>-0.0524204175796309</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.0125035737093294</v>
+        <v>-0.023772624705359</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>-0.0133798091666106</v>
+        <v>-0.0232794833285084</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0128295964465838</v>
+        <v>-0.0268910289641077</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>-0.0134717738700151</v>
+        <v>-0.0109201815766062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-0.0176199099601375</v>
+        <v>0.0163925014868827</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.00471659781800776</v>
+        <v>0.00357450357078576</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>-0.0939361714991916</v>
+        <v>0.022740994615931</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>-0.0174569751017954</v>
+        <v>0.00507331024529979</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>0.0129085365291181</v>
+        <v>0.00862175478218703</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0.00446266873036272</v>
+        <v>0.00585548770833338</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>0.000646830362761002</v>
+        <v>0.0143798282810244</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>-0.0798198686647092</v>
+        <v>0.00395002567322938</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>-0.00674752569537452</v>
+        <v>0.000205301001582185</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0.00527156006542682</v>
+        <v>0.0160145822879545</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.0180531936960862</v>
+        <v>-0.00545030591574909</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>-0.0139336181710002</v>
+        <v>0.000922928166144213</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>-0.0138543253485813</v>
+        <v>-0.0296502773565233</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>-0.00431735930624629</v>
+        <v>0.0151440405978126</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.00317875334671784</v>
+        <v>-0.00394537958782436</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-0.0237040508300712</v>
+        <v>-0.00822606663761671</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>-0.0174970558115597</v>
+        <v>-0.0253006839362412</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.014104274032486</v>
+        <v>0.0280718141072195</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>-0.0281097649518223</v>
+        <v>0.0282110617168989</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.04114108123817</v>
+        <v>0.00334854760043438</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.0365969772664681</v>
+        <v>-0.00540366397957224</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>-0.00649431020583422</v>
+        <v>-0.00264829683021162</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.000363283548856673</v>
+        <v>0.00620790982675485</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.0263270677860406</v>
+        <v>-0.0228773296088243</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>-0.00216472169172752</v>
+        <v>-0.0642678853161765</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.0207062691201942</v>
+        <v>-0.0336002046167139</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.00992967238878747</v>
+        <v>-0.00404785795756745</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>0.0146797074504818</v>
+        <v>0.00620787290616535</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>-0.00418710731335541</v>
+        <v>0.0254141859983272</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>0.00125777609423472</v>
+        <v>-0.00940568977557694</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-0.0330542749676481</v>
+        <v>-0.00389649803540222</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.0360179909222156</v>
+        <v>-0.00144455909689273</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>-0.0307095474200333</v>
+        <v>0.0144972010995295</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>-0.00832775770394465</v>
+        <v>-0.00667698264758397</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.00828023072557943</v>
+        <v>0.0182860986734074</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-0.00286916611074901</v>
+        <v>-0.00556572986951572</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>-0.014287360191265</v>
+        <v>0.0137848999451576</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>-0.0117186313765871</v>
+        <v>0.00144165240971948</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0.0220379413996727</v>
+        <v>0.0513469368258331</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.00483871572712867</v>
+        <v>0.0216618121712076</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0.0054630295750226</v>
+        <v>0.000439919735544414</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.0258712897639516</v>
+        <v>-0.0237484502454917</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.0215703192221152</v>
+        <v>0.0121496442867311</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>-0.00506497213647116</v>
+        <v>-0.0265588493739955</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>-0.0387039624322541</v>
+        <v>0.00853302434032759</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.0825857376321781</v>
+        <v>0.0366898097607808</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.0105278688698462</v>
+        <v>-0.0132190737748012</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.00370843885659659</v>
+        <v>0.00426874293008601</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>-0.000596047491678632</v>
+        <v>0.00715451090137601</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>-0.00179112046658943</v>
+        <v>0.00127591678813198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.00791845524031366</v>
+        <v>-0.0160610751450294</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.00404332055112552</v>
+        <v>0.0186786778836479</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>-0.00237053362845942</v>
+        <v>-0.0000170203917590339</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0.0211173086581525</v>
+        <v>-0.00243888057491761</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>-0.000237398761155259</v>
+        <v>0.0354103399789545</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.0235694707425876</v>
+        <v>0.0103413687753839</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.0291619280988518</v>
+        <v>-0.0113203489410958</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.0343833446581948</v>
+        <v>0.0105721609858566</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>0.00265209858579695</v>
+        <v>-0.000199858909364179</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>0.000202143730295744</v>
+        <v>0.0124156870907467</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-0.0121744493032024</v>
+        <v>0.0244061044474426</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.0114099886320249</v>
+        <v>0.0000846246813505017</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>-0.00495290900976488</v>
+        <v>-0.0011254675883256</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>0.0369959525139035</v>
+        <v>0.000413243092604717</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>-0.00641978766057993</v>
+        <v>-0.000628884679721569</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-0.00334044607732441</v>
+        <v>0.00580275840209933</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.0025235459519455</v>
+        <v>-0.0131483178227334</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>-0.00548299889021932</v>
+        <v>-0.0732902719545904</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>-0.0129249799679637</v>
+        <v>0.0155519671713414</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>-0.0174504412539983</v>
+        <v>0.0199922077209073</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-0.0228126452699433</v>
+        <v>-0.000175237202281519</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.00883872653782805</v>
+        <v>0.0167821932026369</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>-0.00519709379567054</v>
+        <v>0.00977485655529717</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>-0.00704169667062682</v>
+        <v>-0.00920681307638658</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>0.0134457692492389</v>
+        <v>0.00473859145751067</v>
       </c>
     </row>
   </sheetData>
@@ -1368,442 +1368,442 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-0.000075992548292961</v>
+        <v>-0.0134031512064552</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>-0.0201589191980091</v>
+        <v>-0.00503776265266604</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.00245968206905772</v>
+        <v>0.00537304451373472</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.0146880859144682</v>
+        <v>-0.00847365512044275</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.0841222365689254</v>
+        <v>-0.00685627590611108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0.00678867676668831</v>
+        <v>0.0112827834068132</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>-0.0410939829250691</v>
+        <v>0.0237897751018007</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>-0.00783854339341561</v>
+        <v>-0.0417370902224458</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>-0.019044651998158</v>
+        <v>0.043734538700345</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>-0.0140073354964481</v>
+        <v>-0.0265832550420615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-0.00307052801895789</v>
+        <v>0.0104353500261212</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>-0.0363435910691434</v>
+        <v>-0.00677179215504443</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.00334729584208773</v>
+        <v>0.0742083014983902</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.00464239039810589</v>
+        <v>-0.0210517985994361</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>-0.00812479356375165</v>
+        <v>0.00615594952308414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.0385919500970653</v>
+        <v>0.014638832552354</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.00520938200691625</v>
+        <v>-0.0758799206894925</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>-0.0207567221211701</v>
+        <v>0.0199722245262498</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.00944228056767474</v>
+        <v>0.0178113305709192</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>-0.0115905688680461</v>
+        <v>0.0166567539018751</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-0.0112011800855245</v>
+        <v>0.000526970977455298</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.0317616154696372</v>
+        <v>-0.0580680269189756</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.00776213142099981</v>
+        <v>-0.0100311858434859</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>-0.0305639544847838</v>
+        <v>-0.0672771748550267</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0.0124270785911648</v>
+        <v>-0.000436452012020617</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-0.00344646522860554</v>
+        <v>0.0106505433042907</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>-0.050027847523534</v>
+        <v>-0.0368880887054686</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.00520534574501604</v>
+        <v>0.00495580835202333</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>-0.00583602835074879</v>
+        <v>-0.000189792490703761</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.0147964163508863</v>
+        <v>-0.0104507742322884</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.00881327169681577</v>
+        <v>0.00608750827840521</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.0153522581203997</v>
+        <v>0.0246491356212049</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>-0.00968977469407317</v>
+        <v>0.00218976458819705</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0242306743973941</v>
+        <v>-0.00178795082206965</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.00157043634264965</v>
+        <v>-0.0105139032637752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-0.0013803129245971</v>
+        <v>-0.00440711665874676</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.0078825436918684</v>
+        <v>0.0344900767824705</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>-0.0169340074179202</v>
+        <v>0.0210812037850262</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>-0.0169290372668185</v>
+        <v>0.0311535579659754</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>0.02495100094417</v>
+        <v>-0.00380868798763481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-0.0462510555301089</v>
+        <v>0.00347053353001163</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>0.00979236580351042</v>
+        <v>-0.0278945278673617</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.00803550736979405</v>
+        <v>-0.00980051912690101</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.011815966981559</v>
+        <v>-0.0188149282695555</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>-0.0241942380097079</v>
+        <v>-0.00848035187234544</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-0.0129878665182734</v>
+        <v>-0.0241985632997839</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>-0.00573695259447864</v>
+        <v>-0.00457014542291697</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>-0.00864868536599562</v>
+        <v>0.00174643484250759</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>0.026438002947863</v>
+        <v>0.0114790384197575</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>-0.0112831093065634</v>
+        <v>0.0406596081826417</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-0.00255714828703183</v>
+        <v>0.00754811251292196</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0.00317997620072457</v>
+        <v>0.0216005660493099</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.00183228840812733</v>
+        <v>-0.0122935513451557</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>-0.0278448808277794</v>
+        <v>0.000325586221720723</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.00525058349766179</v>
+        <v>0.00524146285224652</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-0.00393550600615628</v>
+        <v>0.00608458456769268</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>-0.0183717599703447</v>
+        <v>0.0129860031814813</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.0104740934591168</v>
+        <v>-0.0157956002643199</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.0211257875411436</v>
+        <v>-0.0364962729728161</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>-0.000950579771163661</v>
+        <v>-0.00859148878546161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-0.00105930991887684</v>
+        <v>-0.0207679868673108</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>-0.0200944456290652</v>
+        <v>-0.0094199854756164</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>-0.00306226866094144</v>
+        <v>0.00182355048363758</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>-0.0032496684029419</v>
+        <v>0.00659304914052953</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>-0.00455823270511768</v>
+        <v>-0.0131398668217232</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-0.00105848293414578</v>
+        <v>0.00328062221801786</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.018393854613145</v>
+        <v>-0.000649561853802429</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>-0.0304671184854686</v>
+        <v>0.00505652049367806</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.00262076677745456</v>
+        <v>-0.0144829704470954</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>-0.0115596743004923</v>
+        <v>0.00363383205095984</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-0.00438815117501076</v>
+        <v>0.00422709868827907</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.0288044289571076</v>
+        <v>0.0122176068546827</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>-0.00553607165727194</v>
+        <v>-0.00895109796937963</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>-0.0022848164347932</v>
+        <v>0.0141883860949409</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>-0.016754437905999</v>
+        <v>0.0120232164600563</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-0.087510441480551</v>
+        <v>-0.00930840095534684</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>-0.0490218777157329</v>
+        <v>0.0176331389826619</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>-0.0158184125237879</v>
+        <v>-0.00568595959868399</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>-0.0306095891932945</v>
+        <v>-0.0247059847707254</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.00530040615154336</v>
+        <v>0.0109115044757562</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.00207050236623067</v>
+        <v>0.0151289055679365</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.0056808718061017</v>
+        <v>0.00568841657790419</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.0176275560828709</v>
+        <v>-0.00444524316130422</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>-0.0426054609893548</v>
+        <v>0.043401485223229</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>-0.00899190491761345</v>
+        <v>-0.00148002737591436</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.0229279732561017</v>
+        <v>0.0256649699743009</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-0.018648773333898</v>
+        <v>0.0163995786489712</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>-0.00676218067029737</v>
+        <v>-0.0255942948190171</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>-0.0720187279924086</v>
+        <v>-0.00619968074221251</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>-0.0191260846791143</v>
+        <v>0.00936383392229687</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-0.0431036847139044</v>
+        <v>-0.00107534080006858</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.0127770180131375</v>
+        <v>0.0257062159760865</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>-0.00222267200362958</v>
+        <v>0.00273892822040138</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>-0.0287509327246319</v>
+        <v>-0.00477914370475383</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>0.00584262783479361</v>
+        <v>-0.00255560157598381</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0.0117402390201567</v>
+        <v>-0.0122817984794649</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>-0.0369976887131229</v>
+        <v>0.00190795277203368</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>0.0123799442148852</v>
+        <v>-0.00472786628625722</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>-0.00996536105906223</v>
+        <v>0.0120917595111461</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>-0.0277283144289595</v>
+        <v>-0.0055404534425649</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.00874830500148209</v>
+        <v>0.0149695772334923</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.0531078263567419</v>
+        <v>-0.0168694371861573</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>-0.027432370812256</v>
+        <v>0.00491533256236709</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>0.0110230310859794</v>
+        <v>0.00800249656064899</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>-0.019989226415689</v>
+        <v>-0.0145609532189466</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.0206066643249205</v>
+        <v>0.00509400394905307</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.0149634568463239</v>
+        <v>0.00507686477404349</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.00839120203018274</v>
+        <v>0.00808955758820942</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>-0.00503771953087718</v>
+        <v>0.00741148258039157</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>0.00894066810236706</v>
+        <v>0.00195062900604169</v>
       </c>
     </row>
   </sheetData>
